--- a/DDA_2016/Qspec27.32/Qspec27.32Silo9.29C.highexp.tabular.xlsx
+++ b/DDA_2016/Qspec27.32/Qspec27.32Silo9.29C.highexp.tabular.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rhonda\Desktop\Backup\Documents\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rhonda\Desktop\Backup\Documents\GitHub\project-pacific.oyster-larvae\DDA_2016\Qspec27.32\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -12828,10 +12828,13 @@
   <dimension ref="A1:AM88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
